--- a/biology/Zoologie/Dindon_Cröllwitzer/Dindon_Cröllwitzer.xlsx
+++ b/biology/Zoologie/Dindon_Cröllwitzer/Dindon_Cröllwitzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dindon_Cr%C3%B6llwitzer</t>
+          <t>Dindon_Cröllwitzer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le dindon Cröllwitzer[1] est une race de dindon de petite taille au plumage bicolore : l'ensemble du plumage est blanc, chaque plume à son extrémité est marquée d'une barre noire transversale suivie d'un étroit liséré blanc.
+Le dindon Cröllwitzer est une race de dindon de petite taille au plumage bicolore : l'ensemble du plumage est blanc, chaque plume à son extrémité est marquée d'une barre noire transversale suivie d'un étroit liséré blanc.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dindon_Cr%C3%B6llwitzer</t>
+          <t>Dindon_Cröllwitzer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce dindon trouve son origine dans le croisement de la race de Ronquières (Belgique) et de races locales saxonnes, dans la région de Halle-sur-Saale[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce dindon trouve son origine dans le croisement de la race de Ronquières (Belgique) et de races locales saxonnes, dans la région de Halle-sur-Saale. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dindon_Cr%C3%B6llwitzer</t>
+          <t>Dindon_Cröllwitzer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Standard
-Dindon: 6 à 8 kg
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dindon: 6 à 8 kg
 Dinde: 4 à 5 kg</t>
         </is>
       </c>
@@ -557,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dindon_Cr%C3%B6llwitzer</t>
+          <t>Dindon_Cröllwitzer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +594,11 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dindon royal bleu possède les mêmes caractéristiques de plumage, où les barres noires en bout de plumes sont cependant remplacées par du bleu. Très rare[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dindon royal bleu possède les mêmes caractéristiques de plumage, où les barres noires en bout de plumes sont cependant remplacées par du bleu. Très rare.
 </t>
         </is>
       </c>
